--- a/机器学习文献阅读/Excel文献拆解/机器学习文献整理-P1.xlsx
+++ b/机器学习文献阅读/Excel文献拆解/机器学习文献整理-P1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\10月Parabens文献调研\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python learning\GirKarken\ReadPaper in Excel\机器学习文献阅读\Excel文献拆解\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -926,6 +926,10 @@
   <si>
     <t xml:space="preserve">micropollutants (MPs, including pharmaceutical, industrial, and pesticidal compounds)
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,6 +1186,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,9 +1214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1580,8 +1584,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1626,33 +1630,33 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="18" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="17" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1769,7 +1773,9 @@
       <c r="J3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1986,27 +1992,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
